--- a/Monokai-default-color-scheme.xlsx
+++ b/Monokai-default-color-scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnQuynh_7490\source\repos\PHITS_SublimeText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C320DB4-BA89-48C3-B403-3FEA1B49460A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED14F14-C7F7-4435-AB27-CBD3A2930A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15492" yWindow="0" windowWidth="7548" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2676" yWindow="1728" windowWidth="16440" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
